--- a/FileB_with_Relevance.xlsx
+++ b/FileB_with_Relevance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,6 +515,26 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>工作流</t>
+        </is>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>"\n定义节点和配置接口\n// 定义节点接口，表⽰⼯作流中的⼀个节点\nexport interface Node {\nid: string; // 节点的唯⼀标识符\nparams?: object;// 可选的参数\nnext: string[]; // 后继节点的 ID 列表\n}\n// 定义配置接口，包含所有节点和起始节点\nexport interface Config {\nnodes: Node[]; // 节点列表\n}\n⼯作流引擎的实现\nimport { Config } from ./Config;\nimport { Node } from ./Node;\n/**\n* @author zhanglulu\n* @description ⼯作流引擎类，实现节点的调度和执⾏\n*/\nexport class WorkflowEngine {\n// 配置信息\nprivate config: Config;\n// 节点映射，将节点 ID 映射到 Node 对象，便于快速查找\nprivate nodeMap: Map&lt;string, Node&gt; = new Map();\n// 前驱节点映射，每个节点对应⼀个前驱节点的集合，⽤于判断节点是否可以执⾏\nprivate predecessors: Map&lt;string, Set&lt;string&gt;&gt; = new Map();\n// 已完成的节点集合，⽤于记录哪些节点已经执⾏完成\nprivate completedNodes: Set&lt;string&gt; = new Set();\n// 正在执⾏的节点集合，防⽌重复执⾏\nprivate executingNodes: Set&lt;string&gt; = new Set();\n// ⽤于等待所有节点执⾏完成的 Promise\nprivate executionPromise: Promise&lt;void&gt;;\n// ⽤于在所有节点执⾏完成时触发的 resolve 函数\nprivate resolveExecution?: () =&gt; void;\n// Logger，⽤于打印⽇志\nprivate loggerEntity: ((msg: string) =&gt; void) | undefined = undefined;\n// 节点执⾏器，⽤于执⾏实际的节点逻辑\nprivate nodeExecutor: ((node: Node) =&gt; Promise&lt;void&gt;) | undefined = undefined;\n/**\n* 构造函数，接受配置对象并初始化\n* @param config\n*/\nconstructor(config: Config) {\n// 配置信息\nthis.config = config;\n// 构建节点映射\nthis.buildNodeMap();\n// 构建前驱节点映射\nthis.buildPredecessors();\n// 在构造函数中初始化 executionPromise，并获取 resolve 函数\nthis.executionPromise = new Promise&lt;void&gt;(resolve =&gt; {\nthis.resolveExecution = resolve;\n});\n}\n/**\n* 设置 Logger\n* @param logger\n*/\npublic setLogger(logger: (msg: string) =&gt; void) {\nthis.loggerEntity = logger;\n}\n/**\n* 设置节点执⾏函数，⽤于执⾏实际的节点逻辑\n* @param nodeExecutor\n*/\npublic setNodeExecutor(nodeExecutor: (node: Node) =&gt; Promise&lt;void&gt;) {\nthis.nodeExecutor = nodeExecutor;\n}\n/**\n* ⽇志打印\n* @param msg\n*/\nprivate log(msg: string) {\nif (this.loggerEntity) {\nthis.loggerEntity(msg);\n} else {\nconsole.log(msg);\n}\n}\n/**\n* 构建节点映射，⽅便通过节点 ID 快速获取节点信息\n*/\nprivate buildNodeMap() {\nthis.config.nodes.forEach(node =&gt; {\nthis.nodeMap.set(node.id, node);\n});\n}\n/**\n* 构建前驱节点映射，初始化每个节点的前驱节点集合\n*/\nprivate buildPredecessors() {\n// 初始化所有节点的前驱集合为空集合\nthis.config.nodes.forEach(node =&gt; {\nif (!this.predecessors.has(node.id)) {\nthis.predecessors.set(node.id, new Set());\n}\n});\n// 遍历所有节点，填充后继节点的前驱集合\nthis.config.nodes.forEach(node =&gt; {\nnode.next.forEach(nextNodeId =&gt; {\nif (!this.predecessors.has(nextNodeId)) {\nthis.predecessors.set(nextNodeId, new Set());\n}\n// 将当前节点添加到后继节点的前驱集合中\nthis.predecessors.get(nextNodeId)?.add(node.id);\n});\n});\n}\n/**\n* 执⾏⼯作流\n*/\npublic async execute() {\n// 存放准备好的节点\nconst readyNodes = new Set&lt;string&gt;();\n// 找出所有没有前驱节点的节点，即可⽴即执⾏的节点\nfor (let entriesElement of this.predecessors.entries()) {\n// 遍历所有前驱节点集合\nlet nodeId = entriesElement[0];\nlet preds = entriesElement[1];\n// 如果前驱集合为空，说明没有前驱节点，即可⽴即执⾏\nif (preds.size === 0) {\nreadyNodes.add(nodeId);\n}\n}\n// 开始执⾏所有准备好的节点\nreadyNodes.forEach(nodeId =&gt; {\n// 异步执⾏节点\nthis.executeNode(nodeId);\n});\n// 等待所有节点执⾏完成\nawait this.executionPromise;\n}\n/**\n* 执⾏单个节点\n* @param nodeId\n*/\nprivate async executeNode(nodeId: string) {\n// 如果节点正在执⾏或已完成，直接返回，防⽌重复执⾏\nif (this.executingNodes.has(nodeId) || this.completedNodes.has(nodeId)) {\nreturn;\n}\n// 标记节点为正在执⾏\nthis.executingNodes.add(nodeId);\n// 获取节点对象\nconst node = this.nodeMap.get(nodeId);\nif (!node) {\nreturn;\n}\nthis.log(`正在执⾏节点 ${node.id}`);\nif (!this.nodeExecutor) {\nthrow new Error(NodeExecutor is not set!);\n}\n// 真正的执⾏逻辑\nawait this.nodeExecutor(node);\n// 将节点标记为已完成\nthis.completedNodes.add(nodeId);\n// 从正在执⾏的集合中移除\nthis.executingNodes.delete(nodeId);\n// 检查是否所有节点都已完成\nif (this.completedNodes.size === this.nodeMap.size) {\n// 触发流程执⾏完成的 Promise\nthis.resolveExecution?.();\n}\n// 处理后继节点，检查它们是否可以执⾏\nnode.next.forEach(nextNodeId =&gt; {\n// 获取后继节点的前驱集合\nconst preds = this.predecessors.get(nextNodeId);\n// 从前驱集合中移除当前已完成的节点\npreds?.delete(nodeId);\nif (preds?.size === 0) {\n// 如果前驱集合为空，说明后继节点的所有前驱都已完成，可以开始执⾏\nthis.executeNode(nextNodeId);\n}\n});\n}\n}\n使⽤⽰例\nimport { WorkflowEngine } from ./WorkflowEngine;\nimport { Config } from ./Config;\n// 读取并解析配置⽂件\nconst configJson = `...`; // 省略，使⽤前⾯的配置⽂件内容\nconst config: Config = JSON.parse(configJson);\n// 创建⼯作流引擎实例\nconst engine = new WorkflowEngine(config);\n// 设置⽇志函数\nengine.setLogger((msg: string) =&gt; {\nconsole.log(msg);\n});\n// 设置节点执⾏器，模拟节点的执⾏逻辑\nengine.setNodeExecutor(async (node) =&gt; {\n// 模拟执⾏时间\nconst delay = node.id === Node4 ? 5000 : Math.random() * 1000;\nawait new Promise(resolve =&gt; setTimeout(resolve, delay));\nconsole.log(`节点 ${node.id} 执⾏完成`);\n});\n// 执⾏⼯作流\n(async () =&gt; {\nawait engine.execute();\nconsole.log(流程执⾏完成。 | \nNode2 执⾏完成后，同时触发 Node3、Node4、Node5 的执⾏。\nNode3 执⾏完成后，触发 Node6 的执⾏。\nNode4、Node5、Node6 都执⾏完成后，触发 Node7 的执⾏。\n以此类推。\n我们的⽬标是设计⼀个⼯作流引擎，能够按照上述依赖关系，正确地调度和执⾏各个节点，并且\n在可能的情况下⽀持节点的并⾏执⾏。\n设计思路\n为了解决上述需求，我们需要解决以下⼏个关键问题：\n1. 节点的依赖管理：如何表⽰节点之间的依赖关系，确定⼀个节点何时可以开始执⾏？\n2. 并发执⾏：如何在满⾜依赖关系的前提下，尽可能地并⾏执⾏节点，提升执⾏效率？\n3. 执⾏控制：如何监控节点的执⾏状态，确保所有节点都被正确地执⾏？\n针对以上问题，我们的设计思路如下：\n数据结构设计：\n使⽤ nodeMap 存储节点的映射关系，⽅便快速根据节点 ID 获取节点信息。\n使⽤ predecessors 存储每个节点的前驱节点集合，便于判断⼀个节点的所有依赖是否\n已经满⾜。\n使⽤ executingNodes 和 completedNodes 分别记录正在执⾏和已经完成的节点，防⽌\n重复执⾏。 | 在鸿蒙上200⾏代码实现基于⼯作流的启动编排设计\n在现代软件系统中，⼯作流的设计与实现是⼀个常⻅且重要的需求。如何⽤简洁、⾼效的代码来\n实现⼀个⽀持并发执⾏、依赖管理的⼯作流引擎？\n本⽂将带领⼤家在鸿蒙上⼀步⼀步实现⼀个基于⼯作流的启动编排引擎，整个实现不到200⾏代\n码。\n背景与需求\n假设我们有⼀个启动流程，需要按照⼀定的顺序和依赖关系来执⾏多个节点。其中部分节点可以\n并⾏执⾏，部分节点需要等待其他节点完成后才能开始。"</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>"0.5748 | 0.5290 | 0.5278"</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FileB_with_Relevance.xlsx
+++ b/FileB_with_Relevance.xlsx
@@ -466,12 +466,85 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>"在鸿蒙上200⾏代码实现基于⼯作流的启动编排设计\n在现代软件系统中，⼯作流的设计与实现是⼀个常⻅且重要的需求。如何⽤简洁、⾼效的代码来\n实现⼀个⽀持并发执⾏、依赖管理的⼯作流引擎？\n本⽂将带领⼤家在鸿蒙上⼀步⼀步实现⼀个基于⼯作流的启动编排引擎，整个实现不到200⾏代\n码。\n背景与需求\n假设我们有⼀个启动流程，需要按照⼀定的顺序和依赖关系来执⾏多个节点。其中部分节点可以\n并⾏执⾏，部分节点需要等待其他节点完成后才能开始。 | \n启动流程图⽰例如下：\nNode1\nNode2\nNode3\nNode4 Node5\nNode6\nNode7\nNode8 Node9 Node10\nNode11\n我们⽤以下的配置⽂件来描述这个启动流程：\n{\nnodes: [\n{\nid: Node1,\nparams: { xx: xx },\nnext: [Node2]\n},\n{\nid: Node2,\nnext: [Node3, Node4, Node5]\n},\n{\nid: Node3,\nnext: [Node6]\n},\n{\nid: Node4,\nnext: [Node7]\n},\n{\nid: Node5,\nnext: [Node7]\n},\n{\nid: Node6,\nnext: [Node7]\n},\n{\nid: Node7,\nnext: [Node8, Node9, Node10]\n},\n{\nid: Node8,\nnext: [Node11]\n},\n{\nid: Node9,\nnext: [Node11]\n},\n{\nid: Node10,\nnext: [Node11]\n},\n{\nid: Node11,\nnext: []\n}\n]\n}\n这个配置⽂件定义了节点之间的依赖关系，例如：\nNode1 执⾏完成后，触发 Node2 的执⾏。"</t>
+          <t>第1条相似段落：
+ 在鸿蒙上200⾏代码实现基于⼯作流的启动编排设计
+在现代软件系统中，⼯作流的设计与实现是⼀个常⻅且重要的需求。如何⽤简洁、⾼效的代码来
+实现⼀个⽀持并发执⾏、依赖管理的⼯作流引擎？
+本⽂将带领⼤家在鸿蒙上⼀步⼀步实现⼀个基于⼯作流的启动编排引擎，整个实现不到200⾏代
+码。
+背景与需求
+假设我们有⼀个启动流程，需要按照⼀定的顺序和依赖关系来执⾏多个节点。其中部分节点可以
+并⾏执⾏，部分节点需要等待其他节点完成后才能开始。
+——————————————————————————————————————————————————————
+第2条相似段落：
+启动流程图⽰例如下：
+Node1
+Node2
+Node3
+Node4 Node5
+Node6
+Node7
+Node8 Node9 Node10
+Node11
+我们⽤以下的配置⽂件来描述这个启动流程：
+{
+nodes: [
+{
+id: Node1,
+params: { xx: xx },
+next: [Node2]
+},
+{
+id: Node2,
+next: [Node3, Node4, Node5]
+},
+{
+id: Node3,
+next: [Node6]
+},
+{
+id: Node4,
+next: [Node7]
+},
+{
+id: Node5,
+next: [Node7]
+},
+{
+id: Node6,
+next: [Node7]
+},
+{
+id: Node7,
+next: [Node8, Node9, Node10]
+},
+{
+id: Node8,
+next: [Node11]
+},
+{
+id: Node9,
+next: [Node11]
+},
+{
+id: Node10,
+next: [Node11]
+},
+{
+id: Node11,
+next: []
+}
+]
+}
+这个配置⽂件定义了节点之间的依赖关系，例如：
+Node1 执⾏完成后，触发 Node2 的执⾏。
+——————————————————————————————————————————————————————</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>"0.6507 | 0.5540"</t>
+          <t>第1条相似段落相似度: 0.6507
+第2条相似段落相似度: 0.5540</t>
         </is>
       </c>
     </row>
@@ -486,12 +559,232 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>"\n定义节点和配置接口\n// 定义节点接口，表⽰⼯作流中的⼀个节点\nexport interface Node {\nid: string; // 节点的唯⼀标识符\nparams?: object;// 可选的参数\nnext: string[]; // 后继节点的 ID 列表\n}\n// 定义配置接口，包含所有节点和起始节点\nexport interface Config {\nnodes: Node[]; // 节点列表\n}\n⼯作流引擎的实现\nimport { Config } from ./Config;\nimport { Node } from ./Node;\n/**\n* @author zhanglulu\n* @description ⼯作流引擎类，实现节点的调度和执⾏\n*/\nexport class WorkflowEngine {\n// 配置信息\nprivate config: Config;\n// 节点映射，将节点 ID 映射到 Node 对象，便于快速查找\nprivate nodeMap: Map&lt;string, Node&gt; = new Map();\n// 前驱节点映射，每个节点对应⼀个前驱节点的集合，⽤于判断节点是否可以执⾏\nprivate predecessors: Map&lt;string, Set&lt;string&gt;&gt; = new Map();\n// 已完成的节点集合，⽤于记录哪些节点已经执⾏完成\nprivate completedNodes: Set&lt;string&gt; = new Set();\n// 正在执⾏的节点集合，防⽌重复执⾏\nprivate executingNodes: Set&lt;string&gt; = new Set();\n// ⽤于等待所有节点执⾏完成的 Promise\nprivate executionPromise: Promise&lt;void&gt;;\n// ⽤于在所有节点执⾏完成时触发的 resolve 函数\nprivate resolveExecution?: () =&gt; void;\n// Logger，⽤于打印⽇志\nprivate loggerEntity: ((msg: string) =&gt; void) | undefined = undefined;\n// 节点执⾏器，⽤于执⾏实际的节点逻辑\nprivate nodeExecutor: ((node: Node) =&gt; Promise&lt;void&gt;) | undefined = undefined;\n/**\n* 构造函数，接受配置对象并初始化\n* @param config\n*/\nconstructor(config: Config) {\n// 配置信息\nthis.config = config;\n// 构建节点映射\nthis.buildNodeMap();\n// 构建前驱节点映射\nthis.buildPredecessors();\n// 在构造函数中初始化 executionPromise，并获取 resolve 函数\nthis.executionPromise = new Promise&lt;void&gt;(resolve =&gt; {\nthis.resolveExecution = resolve;\n});\n}\n/**\n* 设置 Logger\n* @param logger\n*/\npublic setLogger(logger: (msg: string) =&gt; void) {\nthis.loggerEntity = logger;\n}\n/**\n* 设置节点执⾏函数，⽤于执⾏实际的节点逻辑\n* @param nodeExecutor\n*/\npublic setNodeExecutor(nodeExecutor: (node: Node) =&gt; Promise&lt;void&gt;) {\nthis.nodeExecutor = nodeExecutor;\n}\n/**\n* ⽇志打印\n* @param msg\n*/\nprivate log(msg: string) {\nif (this.loggerEntity) {\nthis.loggerEntity(msg);\n} else {\nconsole.log(msg);\n}\n}\n/**\n* 构建节点映射，⽅便通过节点 ID 快速获取节点信息\n*/\nprivate buildNodeMap() {\nthis.config.nodes.forEach(node =&gt; {\nthis.nodeMap.set(node.id, node);\n});\n}\n/**\n* 构建前驱节点映射，初始化每个节点的前驱节点集合\n*/\nprivate buildPredecessors() {\n// 初始化所有节点的前驱集合为空集合\nthis.config.nodes.forEach(node =&gt; {\nif (!this.predecessors.has(node.id)) {\nthis.predecessors.set(node.id, new Set());\n}\n});\n// 遍历所有节点，填充后继节点的前驱集合\nthis.config.nodes.forEach(node =&gt; {\nnode.next.forEach(nextNodeId =&gt; {\nif (!this.predecessors.has(nextNodeId)) {\nthis.predecessors.set(nextNodeId, new Set());\n}\n// 将当前节点添加到后继节点的前驱集合中\nthis.predecessors.get(nextNodeId)?.add(node.id);\n});\n});\n}\n/**\n* 执⾏⼯作流\n*/\npublic async execute() {\n// 存放准备好的节点\nconst readyNodes = new Set&lt;string&gt;();\n// 找出所有没有前驱节点的节点，即可⽴即执⾏的节点\nfor (let entriesElement of this.predecessors.entries()) {\n// 遍历所有前驱节点集合\nlet nodeId = entriesElement[0];\nlet preds = entriesElement[1];\n// 如果前驱集合为空，说明没有前驱节点，即可⽴即执⾏\nif (preds.size === 0) {\nreadyNodes.add(nodeId);\n}\n}\n// 开始执⾏所有准备好的节点\nreadyNodes.forEach(nodeId =&gt; {\n// 异步执⾏节点\nthis.executeNode(nodeId);\n});\n// 等待所有节点执⾏完成\nawait this.executionPromise;\n}\n/**\n* 执⾏单个节点\n* @param nodeId\n*/\nprivate async executeNode(nodeId: string) {\n// 如果节点正在执⾏或已完成，直接返回，防⽌重复执⾏\nif (this.executingNodes.has(nodeId) || this.completedNodes.has(nodeId)) {\nreturn;\n}\n// 标记节点为正在执⾏\nthis.executingNodes.add(nodeId);\n// 获取节点对象\nconst node = this.nodeMap.get(nodeId);\nif (!node) {\nreturn;\n}\nthis.log(`正在执⾏节点 ${node.id}`);\nif (!this.nodeExecutor) {\nthrow new Error(NodeExecutor is not set!);\n}\n// 真正的执⾏逻辑\nawait this.nodeExecutor(node);\n// 将节点标记为已完成\nthis.completedNodes.add(nodeId);\n// 从正在执⾏的集合中移除\nthis.executingNodes.delete(nodeId);\n// 检查是否所有节点都已完成\nif (this.completedNodes.size === this.nodeMap.size) {\n// 触发流程执⾏完成的 Promise\nthis.resolveExecution?.();\n}\n// 处理后继节点，检查它们是否可以执⾏\nnode.next.forEach(nextNodeId =&gt; {\n// 获取后继节点的前驱集合\nconst preds = this.predecessors.get(nextNodeId);\n// 从前驱集合中移除当前已完成的节点\npreds?.delete(nodeId);\nif (preds?.size === 0) {\n// 如果前驱集合为空，说明后继节点的所有前驱都已完成，可以开始执⾏\nthis.executeNode(nextNodeId);\n}\n});\n}\n}\n使⽤⽰例\nimport { WorkflowEngine } from ./WorkflowEngine;\nimport { Config } from ./Config;\n// 读取并解析配置⽂件\nconst configJson = `...`; // 省略，使⽤前⾯的配置⽂件内容\nconst config: Config = JSON.parse(configJson);\n// 创建⼯作流引擎实例\nconst engine = new WorkflowEngine(config);\n// 设置⽇志函数\nengine.setLogger((msg: string) =&gt; {\nconsole.log(msg);\n});\n// 设置节点执⾏器，模拟节点的执⾏逻辑\nengine.setNodeExecutor(async (node) =&gt; {\n// 模拟执⾏时间\nconst delay = node.id === Node4 ? 5000 : Math.random() * 1000;\nawait new Promise(resolve =&gt; setTimeout(resolve, delay));\nconsole.log(`节点 ${node.id} 执⾏完成`);\n});\n// 执⾏⼯作流\n(async () =&gt; {\nawait engine.execute();\nconsole.log(流程执⾏完成。 | \nNode2 执⾏完成后，同时触发 Node3、Node4、Node5 的执⾏。\nNode3 执⾏完成后，触发 Node6 的执⾏。\nNode4、Node5、Node6 都执⾏完成后，触发 Node7 的执⾏。\n以此类推。\n我们的⽬标是设计⼀个⼯作流引擎，能够按照上述依赖关系，正确地调度和执⾏各个节点，并且\n在可能的情况下⽀持节点的并⾏执⾏。\n设计思路\n为了解决上述需求，我们需要解决以下⼏个关键问题：\n1. 节点的依赖管理：如何表⽰节点之间的依赖关系，确定⼀个节点何时可以开始执⾏？\n2. 并发执⾏：如何在满⾜依赖关系的前提下，尽可能地并⾏执⾏节点，提升执⾏效率？\n3. 执⾏控制：如何监控节点的执⾏状态，确保所有节点都被正确地执⾏？\n针对以上问题，我们的设计思路如下：\n数据结构设计：\n使⽤ nodeMap 存储节点的映射关系，⽅便快速根据节点 ID 获取节点信息。\n使⽤ predecessors 存储每个节点的前驱节点集合，便于判断⼀个节点的所有依赖是否\n已经满⾜。\n使⽤ executingNodes 和 completedNodes 分别记录正在执⾏和已经完成的节点，防⽌\n重复执⾏。"</t>
+          <t>第1条相似段落：
+定义节点和配置接口
+// 定义节点接口，表⽰⼯作流中的⼀个节点
+export interface Node {
+id: string; // 节点的唯⼀标识符
+params?: object;// 可选的参数
+next: string[]; // 后继节点的 ID 列表
+}
+// 定义配置接口，包含所有节点和起始节点
+export interface Config {
+nodes: Node[]; // 节点列表
+}
+⼯作流引擎的实现
+import { Config } from ./Config;
+import { Node } from ./Node;
+/**
+* @author zhanglulu
+* @description ⼯作流引擎类，实现节点的调度和执⾏
+*/
+export class WorkflowEngine {
+// 配置信息
+private config: Config;
+// 节点映射，将节点 ID 映射到 Node 对象，便于快速查找
+private nodeMap: Map&lt;string, Node&gt; = new Map();
+// 前驱节点映射，每个节点对应⼀个前驱节点的集合，⽤于判断节点是否可以执⾏
+private predecessors: Map&lt;string, Set&lt;string&gt;&gt; = new Map();
+// 已完成的节点集合，⽤于记录哪些节点已经执⾏完成
+private completedNodes: Set&lt;string&gt; = new Set();
+// 正在执⾏的节点集合，防⽌重复执⾏
+private executingNodes: Set&lt;string&gt; = new Set();
+// ⽤于等待所有节点执⾏完成的 Promise
+private executionPromise: Promise&lt;void&gt;;
+// ⽤于在所有节点执⾏完成时触发的 resolve 函数
+private resolveExecution?: () =&gt; void;
+// Logger，⽤于打印⽇志
+private loggerEntity: ((msg: string) =&gt; void) | undefined = undefined;
+// 节点执⾏器，⽤于执⾏实际的节点逻辑
+private nodeExecutor: ((node: Node) =&gt; Promise&lt;void&gt;) | undefined = undefined;
+/**
+* 构造函数，接受配置对象并初始化
+* @param config
+*/
+constructor(config: Config) {
+// 配置信息
+this.config = config;
+// 构建节点映射
+this.buildNodeMap();
+// 构建前驱节点映射
+this.buildPredecessors();
+// 在构造函数中初始化 executionPromise，并获取 resolve 函数
+this.executionPromise = new Promise&lt;void&gt;(resolve =&gt; {
+this.resolveExecution = resolve;
+});
+}
+/**
+* 设置 Logger
+* @param logger
+*/
+public setLogger(logger: (msg: string) =&gt; void) {
+this.loggerEntity = logger;
+}
+/**
+* 设置节点执⾏函数，⽤于执⾏实际的节点逻辑
+* @param nodeExecutor
+*/
+public setNodeExecutor(nodeExecutor: (node: Node) =&gt; Promise&lt;void&gt;) {
+this.nodeExecutor = nodeExecutor;
+}
+/**
+* ⽇志打印
+* @param msg
+*/
+private log(msg: string) {
+if (this.loggerEntity) {
+this.loggerEntity(msg);
+} else {
+console.log(msg);
+}
+}
+/**
+* 构建节点映射，⽅便通过节点 ID 快速获取节点信息
+*/
+private buildNodeMap() {
+this.config.nodes.forEach(node =&gt; {
+this.nodeMap.set(node.id, node);
+});
+}
+/**
+* 构建前驱节点映射，初始化每个节点的前驱节点集合
+*/
+private buildPredecessors() {
+// 初始化所有节点的前驱集合为空集合
+this.config.nodes.forEach(node =&gt; {
+if (!this.predecessors.has(node.id)) {
+this.predecessors.set(node.id, new Set());
+}
+});
+// 遍历所有节点，填充后继节点的前驱集合
+this.config.nodes.forEach(node =&gt; {
+node.next.forEach(nextNodeId =&gt; {
+if (!this.predecessors.has(nextNodeId)) {
+this.predecessors.set(nextNodeId, new Set());
+}
+// 将当前节点添加到后继节点的前驱集合中
+this.predecessors.get(nextNodeId)?.add(node.id);
+});
+});
+}
+/**
+* 执⾏⼯作流
+*/
+public async execute() {
+// 存放准备好的节点
+const readyNodes = new Set&lt;string&gt;();
+// 找出所有没有前驱节点的节点，即可⽴即执⾏的节点
+for (let entriesElement of this.predecessors.entries()) {
+// 遍历所有前驱节点集合
+let nodeId = entriesElement[0];
+let preds = entriesElement[1];
+// 如果前驱集合为空，说明没有前驱节点，即可⽴即执⾏
+if (preds.size === 0) {
+readyNodes.add(nodeId);
+}
+}
+// 开始执⾏所有准备好的节点
+readyNodes.forEach(nodeId =&gt; {
+// 异步执⾏节点
+this.executeNode(nodeId);
+});
+// 等待所有节点执⾏完成
+await this.executionPromise;
+}
+/**
+* 执⾏单个节点
+* @param nodeId
+*/
+private async executeNode(nodeId: string) {
+// 如果节点正在执⾏或已完成，直接返回，防⽌重复执⾏
+if (this.executingNodes.has(nodeId) || this.completedNodes.has(nodeId)) {
+return;
+}
+// 标记节点为正在执⾏
+this.executingNodes.add(nodeId);
+// 获取节点对象
+const node = this.nodeMap.get(nodeId);
+if (!node) {
+return;
+}
+this.log(`正在执⾏节点 ${node.id}`);
+if (!this.nodeExecutor) {
+throw new Error(NodeExecutor is not set!);
+}
+// 真正的执⾏逻辑
+await this.nodeExecutor(node);
+// 将节点标记为已完成
+this.completedNodes.add(nodeId);
+// 从正在执⾏的集合中移除
+this.executingNodes.delete(nodeId);
+// 检查是否所有节点都已完成
+if (this.completedNodes.size === this.nodeMap.size) {
+// 触发流程执⾏完成的 Promise
+this.resolveExecution?.();
+}
+// 处理后继节点，检查它们是否可以执⾏
+node.next.forEach(nextNodeId =&gt; {
+// 获取后继节点的前驱集合
+const preds = this.predecessors.get(nextNodeId);
+// 从前驱集合中移除当前已完成的节点
+preds?.delete(nodeId);
+if (preds?.size === 0) {
+// 如果前驱集合为空，说明后继节点的所有前驱都已完成，可以开始执⾏
+this.executeNode(nextNodeId);
+}
+});
+}
+}
+使⽤⽰例
+import { WorkflowEngine } from ./WorkflowEngine;
+import { Config } from ./Config;
+// 读取并解析配置⽂件
+const configJson = `...`; // 省略，使⽤前⾯的配置⽂件内容
+const config: Config = JSON.parse(configJson);
+// 创建⼯作流引擎实例
+const engine = new WorkflowEngine(config);
+// 设置⽇志函数
+engine.setLogger((msg: string) =&gt; {
+console.log(msg);
+});
+// 设置节点执⾏器，模拟节点的执⾏逻辑
+engine.setNodeExecutor(async (node) =&gt; {
+// 模拟执⾏时间
+const delay = node.id === Node4 ? 5000 : Math.random() * 1000;
+await new Promise(resolve =&gt; setTimeout(resolve, delay));
+console.log(`节点 ${node.id} 执⾏完成`);
+});
+// 执⾏⼯作流
+(async () =&gt; {
+await engine.execute();
+console.log(流程执⾏完成。
+——————————————————————————————————————————————————————
+第2条相似段落：
+Node2 执⾏完成后，同时触发 Node3、Node4、Node5 的执⾏。
+Node3 执⾏完成后，触发 Node6 的执⾏。
+Node4、Node5、Node6 都执⾏完成后，触发 Node7 的执⾏。
+以此类推。
+我们的⽬标是设计⼀个⼯作流引擎，能够按照上述依赖关系，正确地调度和执⾏各个节点，并且
+在可能的情况下⽀持节点的并⾏执⾏。
+设计思路
+为了解决上述需求，我们需要解决以下⼏个关键问题：
+1. 节点的依赖管理：如何表⽰节点之间的依赖关系，确定⼀个节点何时可以开始执⾏？
+2. 并发执⾏：如何在满⾜依赖关系的前提下，尽可能地并⾏执⾏节点，提升执⾏效率？
+3. 执⾏控制：如何监控节点的执⾏状态，确保所有节点都被正确地执⾏？
+针对以上问题，我们的设计思路如下：
+数据结构设计：
+使⽤ nodeMap 存储节点的映射关系，⽅便快速根据节点 ID 获取节点信息。
+使⽤ predecessors 存储每个节点的前驱节点集合，便于判断⼀个节点的所有依赖是否
+已经满⾜。
+使⽤ executingNodes 和 completedNodes 分别记录正在执⾏和已经完成的节点，防⽌
+重复执⾏。
+——————————————————————————————————————————————————————</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>"0.5456 | 0.5437"</t>
+          <t>第1条相似段落相似度: 0.5456
+第2条相似段落相似度: 0.5437</t>
         </is>
       </c>
     </row>
@@ -504,16 +797,8 @@
       <c r="B4" t="b">
         <v>0</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -526,12 +811,243 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>"\n定义节点和配置接口\n// 定义节点接口，表⽰⼯作流中的⼀个节点\nexport interface Node {\nid: string; // 节点的唯⼀标识符\nparams?: object;// 可选的参数\nnext: string[]; // 后继节点的 ID 列表\n}\n// 定义配置接口，包含所有节点和起始节点\nexport interface Config {\nnodes: Node[]; // 节点列表\n}\n⼯作流引擎的实现\nimport { Config } from ./Config;\nimport { Node } from ./Node;\n/**\n* @author zhanglulu\n* @description ⼯作流引擎类，实现节点的调度和执⾏\n*/\nexport class WorkflowEngine {\n// 配置信息\nprivate config: Config;\n// 节点映射，将节点 ID 映射到 Node 对象，便于快速查找\nprivate nodeMap: Map&lt;string, Node&gt; = new Map();\n// 前驱节点映射，每个节点对应⼀个前驱节点的集合，⽤于判断节点是否可以执⾏\nprivate predecessors: Map&lt;string, Set&lt;string&gt;&gt; = new Map();\n// 已完成的节点集合，⽤于记录哪些节点已经执⾏完成\nprivate completedNodes: Set&lt;string&gt; = new Set();\n// 正在执⾏的节点集合，防⽌重复执⾏\nprivate executingNodes: Set&lt;string&gt; = new Set();\n// ⽤于等待所有节点执⾏完成的 Promise\nprivate executionPromise: Promise&lt;void&gt;;\n// ⽤于在所有节点执⾏完成时触发的 resolve 函数\nprivate resolveExecution?: () =&gt; void;\n// Logger，⽤于打印⽇志\nprivate loggerEntity: ((msg: string) =&gt; void) | undefined = undefined;\n// 节点执⾏器，⽤于执⾏实际的节点逻辑\nprivate nodeExecutor: ((node: Node) =&gt; Promise&lt;void&gt;) | undefined = undefined;\n/**\n* 构造函数，接受配置对象并初始化\n* @param config\n*/\nconstructor(config: Config) {\n// 配置信息\nthis.config = config;\n// 构建节点映射\nthis.buildNodeMap();\n// 构建前驱节点映射\nthis.buildPredecessors();\n// 在构造函数中初始化 executionPromise，并获取 resolve 函数\nthis.executionPromise = new Promise&lt;void&gt;(resolve =&gt; {\nthis.resolveExecution = resolve;\n});\n}\n/**\n* 设置 Logger\n* @param logger\n*/\npublic setLogger(logger: (msg: string) =&gt; void) {\nthis.loggerEntity = logger;\n}\n/**\n* 设置节点执⾏函数，⽤于执⾏实际的节点逻辑\n* @param nodeExecutor\n*/\npublic setNodeExecutor(nodeExecutor: (node: Node) =&gt; Promise&lt;void&gt;) {\nthis.nodeExecutor = nodeExecutor;\n}\n/**\n* ⽇志打印\n* @param msg\n*/\nprivate log(msg: string) {\nif (this.loggerEntity) {\nthis.loggerEntity(msg);\n} else {\nconsole.log(msg);\n}\n}\n/**\n* 构建节点映射，⽅便通过节点 ID 快速获取节点信息\n*/\nprivate buildNodeMap() {\nthis.config.nodes.forEach(node =&gt; {\nthis.nodeMap.set(node.id, node);\n});\n}\n/**\n* 构建前驱节点映射，初始化每个节点的前驱节点集合\n*/\nprivate buildPredecessors() {\n// 初始化所有节点的前驱集合为空集合\nthis.config.nodes.forEach(node =&gt; {\nif (!this.predecessors.has(node.id)) {\nthis.predecessors.set(node.id, new Set());\n}\n});\n// 遍历所有节点，填充后继节点的前驱集合\nthis.config.nodes.forEach(node =&gt; {\nnode.next.forEach(nextNodeId =&gt; {\nif (!this.predecessors.has(nextNodeId)) {\nthis.predecessors.set(nextNodeId, new Set());\n}\n// 将当前节点添加到后继节点的前驱集合中\nthis.predecessors.get(nextNodeId)?.add(node.id);\n});\n});\n}\n/**\n* 执⾏⼯作流\n*/\npublic async execute() {\n// 存放准备好的节点\nconst readyNodes = new Set&lt;string&gt;();\n// 找出所有没有前驱节点的节点，即可⽴即执⾏的节点\nfor (let entriesElement of this.predecessors.entries()) {\n// 遍历所有前驱节点集合\nlet nodeId = entriesElement[0];\nlet preds = entriesElement[1];\n// 如果前驱集合为空，说明没有前驱节点，即可⽴即执⾏\nif (preds.size === 0) {\nreadyNodes.add(nodeId);\n}\n}\n// 开始执⾏所有准备好的节点\nreadyNodes.forEach(nodeId =&gt; {\n// 异步执⾏节点\nthis.executeNode(nodeId);\n});\n// 等待所有节点执⾏完成\nawait this.executionPromise;\n}\n/**\n* 执⾏单个节点\n* @param nodeId\n*/\nprivate async executeNode(nodeId: string) {\n// 如果节点正在执⾏或已完成，直接返回，防⽌重复执⾏\nif (this.executingNodes.has(nodeId) || this.completedNodes.has(nodeId)) {\nreturn;\n}\n// 标记节点为正在执⾏\nthis.executingNodes.add(nodeId);\n// 获取节点对象\nconst node = this.nodeMap.get(nodeId);\nif (!node) {\nreturn;\n}\nthis.log(`正在执⾏节点 ${node.id}`);\nif (!this.nodeExecutor) {\nthrow new Error(NodeExecutor is not set!);\n}\n// 真正的执⾏逻辑\nawait this.nodeExecutor(node);\n// 将节点标记为已完成\nthis.completedNodes.add(nodeId);\n// 从正在执⾏的集合中移除\nthis.executingNodes.delete(nodeId);\n// 检查是否所有节点都已完成\nif (this.completedNodes.size === this.nodeMap.size) {\n// 触发流程执⾏完成的 Promise\nthis.resolveExecution?.();\n}\n// 处理后继节点，检查它们是否可以执⾏\nnode.next.forEach(nextNodeId =&gt; {\n// 获取后继节点的前驱集合\nconst preds = this.predecessors.get(nextNodeId);\n// 从前驱集合中移除当前已完成的节点\npreds?.delete(nodeId);\nif (preds?.size === 0) {\n// 如果前驱集合为空，说明后继节点的所有前驱都已完成，可以开始执⾏\nthis.executeNode(nextNodeId);\n}\n});\n}\n}\n使⽤⽰例\nimport { WorkflowEngine } from ./WorkflowEngine;\nimport { Config } from ./Config;\n// 读取并解析配置⽂件\nconst configJson = `...`; // 省略，使⽤前⾯的配置⽂件内容\nconst config: Config = JSON.parse(configJson);\n// 创建⼯作流引擎实例\nconst engine = new WorkflowEngine(config);\n// 设置⽇志函数\nengine.setLogger((msg: string) =&gt; {\nconsole.log(msg);\n});\n// 设置节点执⾏器，模拟节点的执⾏逻辑\nengine.setNodeExecutor(async (node) =&gt; {\n// 模拟执⾏时间\nconst delay = node.id === Node4 ? 5000 : Math.random() * 1000;\nawait new Promise(resolve =&gt; setTimeout(resolve, delay));\nconsole.log(`节点 ${node.id} 执⾏完成`);\n});\n// 执⾏⼯作流\n(async () =&gt; {\nawait engine.execute();\nconsole.log(流程执⾏完成。 | \nNode2 执⾏完成后，同时触发 Node3、Node4、Node5 的执⾏。\nNode3 执⾏完成后，触发 Node6 的执⾏。\nNode4、Node5、Node6 都执⾏完成后，触发 Node7 的执⾏。\n以此类推。\n我们的⽬标是设计⼀个⼯作流引擎，能够按照上述依赖关系，正确地调度和执⾏各个节点，并且\n在可能的情况下⽀持节点的并⾏执⾏。\n设计思路\n为了解决上述需求，我们需要解决以下⼏个关键问题：\n1. 节点的依赖管理：如何表⽰节点之间的依赖关系，确定⼀个节点何时可以开始执⾏？\n2. 并发执⾏：如何在满⾜依赖关系的前提下，尽可能地并⾏执⾏节点，提升执⾏效率？\n3. 执⾏控制：如何监控节点的执⾏状态，确保所有节点都被正确地执⾏？\n针对以上问题，我们的设计思路如下：\n数据结构设计：\n使⽤ nodeMap 存储节点的映射关系，⽅便快速根据节点 ID 获取节点信息。\n使⽤ predecessors 存储每个节点的前驱节点集合，便于判断⼀个节点的所有依赖是否\n已经满⾜。\n使⽤ executingNodes 和 completedNodes 分别记录正在执⾏和已经完成的节点，防⽌\n重复执⾏。 | 在鸿蒙上200⾏代码实现基于⼯作流的启动编排设计\n在现代软件系统中，⼯作流的设计与实现是⼀个常⻅且重要的需求。如何⽤简洁、⾼效的代码来\n实现⼀个⽀持并发执⾏、依赖管理的⼯作流引擎？\n本⽂将带领⼤家在鸿蒙上⼀步⼀步实现⼀个基于⼯作流的启动编排引擎，整个实现不到200⾏代\n码。\n背景与需求\n假设我们有⼀个启动流程，需要按照⼀定的顺序和依赖关系来执⾏多个节点。其中部分节点可以\n并⾏执⾏，部分节点需要等待其他节点完成后才能开始。"</t>
+          <t>第1条相似段落：
+定义节点和配置接口
+// 定义节点接口，表⽰⼯作流中的⼀个节点
+export interface Node {
+id: string; // 节点的唯⼀标识符
+params?: object;// 可选的参数
+next: string[]; // 后继节点的 ID 列表
+}
+// 定义配置接口，包含所有节点和起始节点
+export interface Config {
+nodes: Node[]; // 节点列表
+}
+⼯作流引擎的实现
+import { Config } from ./Config;
+import { Node } from ./Node;
+/**
+* @author zhanglulu
+* @description ⼯作流引擎类，实现节点的调度和执⾏
+*/
+export class WorkflowEngine {
+// 配置信息
+private config: Config;
+// 节点映射，将节点 ID 映射到 Node 对象，便于快速查找
+private nodeMap: Map&lt;string, Node&gt; = new Map();
+// 前驱节点映射，每个节点对应⼀个前驱节点的集合，⽤于判断节点是否可以执⾏
+private predecessors: Map&lt;string, Set&lt;string&gt;&gt; = new Map();
+// 已完成的节点集合，⽤于记录哪些节点已经执⾏完成
+private completedNodes: Set&lt;string&gt; = new Set();
+// 正在执⾏的节点集合，防⽌重复执⾏
+private executingNodes: Set&lt;string&gt; = new Set();
+// ⽤于等待所有节点执⾏完成的 Promise
+private executionPromise: Promise&lt;void&gt;;
+// ⽤于在所有节点执⾏完成时触发的 resolve 函数
+private resolveExecution?: () =&gt; void;
+// Logger，⽤于打印⽇志
+private loggerEntity: ((msg: string) =&gt; void) | undefined = undefined;
+// 节点执⾏器，⽤于执⾏实际的节点逻辑
+private nodeExecutor: ((node: Node) =&gt; Promise&lt;void&gt;) | undefined = undefined;
+/**
+* 构造函数，接受配置对象并初始化
+* @param config
+*/
+constructor(config: Config) {
+// 配置信息
+this.config = config;
+// 构建节点映射
+this.buildNodeMap();
+// 构建前驱节点映射
+this.buildPredecessors();
+// 在构造函数中初始化 executionPromise，并获取 resolve 函数
+this.executionPromise = new Promise&lt;void&gt;(resolve =&gt; {
+this.resolveExecution = resolve;
+});
+}
+/**
+* 设置 Logger
+* @param logger
+*/
+public setLogger(logger: (msg: string) =&gt; void) {
+this.loggerEntity = logger;
+}
+/**
+* 设置节点执⾏函数，⽤于执⾏实际的节点逻辑
+* @param nodeExecutor
+*/
+public setNodeExecutor(nodeExecutor: (node: Node) =&gt; Promise&lt;void&gt;) {
+this.nodeExecutor = nodeExecutor;
+}
+/**
+* ⽇志打印
+* @param msg
+*/
+private log(msg: string) {
+if (this.loggerEntity) {
+this.loggerEntity(msg);
+} else {
+console.log(msg);
+}
+}
+/**
+* 构建节点映射，⽅便通过节点 ID 快速获取节点信息
+*/
+private buildNodeMap() {
+this.config.nodes.forEach(node =&gt; {
+this.nodeMap.set(node.id, node);
+});
+}
+/**
+* 构建前驱节点映射，初始化每个节点的前驱节点集合
+*/
+private buildPredecessors() {
+// 初始化所有节点的前驱集合为空集合
+this.config.nodes.forEach(node =&gt; {
+if (!this.predecessors.has(node.id)) {
+this.predecessors.set(node.id, new Set());
+}
+});
+// 遍历所有节点，填充后继节点的前驱集合
+this.config.nodes.forEach(node =&gt; {
+node.next.forEach(nextNodeId =&gt; {
+if (!this.predecessors.has(nextNodeId)) {
+this.predecessors.set(nextNodeId, new Set());
+}
+// 将当前节点添加到后继节点的前驱集合中
+this.predecessors.get(nextNodeId)?.add(node.id);
+});
+});
+}
+/**
+* 执⾏⼯作流
+*/
+public async execute() {
+// 存放准备好的节点
+const readyNodes = new Set&lt;string&gt;();
+// 找出所有没有前驱节点的节点，即可⽴即执⾏的节点
+for (let entriesElement of this.predecessors.entries()) {
+// 遍历所有前驱节点集合
+let nodeId = entriesElement[0];
+let preds = entriesElement[1];
+// 如果前驱集合为空，说明没有前驱节点，即可⽴即执⾏
+if (preds.size === 0) {
+readyNodes.add(nodeId);
+}
+}
+// 开始执⾏所有准备好的节点
+readyNodes.forEach(nodeId =&gt; {
+// 异步执⾏节点
+this.executeNode(nodeId);
+});
+// 等待所有节点执⾏完成
+await this.executionPromise;
+}
+/**
+* 执⾏单个节点
+* @param nodeId
+*/
+private async executeNode(nodeId: string) {
+// 如果节点正在执⾏或已完成，直接返回，防⽌重复执⾏
+if (this.executingNodes.has(nodeId) || this.completedNodes.has(nodeId)) {
+return;
+}
+// 标记节点为正在执⾏
+this.executingNodes.add(nodeId);
+// 获取节点对象
+const node = this.nodeMap.get(nodeId);
+if (!node) {
+return;
+}
+this.log(`正在执⾏节点 ${node.id}`);
+if (!this.nodeExecutor) {
+throw new Error(NodeExecutor is not set!);
+}
+// 真正的执⾏逻辑
+await this.nodeExecutor(node);
+// 将节点标记为已完成
+this.completedNodes.add(nodeId);
+// 从正在执⾏的集合中移除
+this.executingNodes.delete(nodeId);
+// 检查是否所有节点都已完成
+if (this.completedNodes.size === this.nodeMap.size) {
+// 触发流程执⾏完成的 Promise
+this.resolveExecution?.();
+}
+// 处理后继节点，检查它们是否可以执⾏
+node.next.forEach(nextNodeId =&gt; {
+// 获取后继节点的前驱集合
+const preds = this.predecessors.get(nextNodeId);
+// 从前驱集合中移除当前已完成的节点
+preds?.delete(nodeId);
+if (preds?.size === 0) {
+// 如果前驱集合为空，说明后继节点的所有前驱都已完成，可以开始执⾏
+this.executeNode(nextNodeId);
+}
+});
+}
+}
+使⽤⽰例
+import { WorkflowEngine } from ./WorkflowEngine;
+import { Config } from ./Config;
+// 读取并解析配置⽂件
+const configJson = `...`; // 省略，使⽤前⾯的配置⽂件内容
+const config: Config = JSON.parse(configJson);
+// 创建⼯作流引擎实例
+const engine = new WorkflowEngine(config);
+// 设置⽇志函数
+engine.setLogger((msg: string) =&gt; {
+console.log(msg);
+});
+// 设置节点执⾏器，模拟节点的执⾏逻辑
+engine.setNodeExecutor(async (node) =&gt; {
+// 模拟执⾏时间
+const delay = node.id === Node4 ? 5000 : Math.random() * 1000;
+await new Promise(resolve =&gt; setTimeout(resolve, delay));
+console.log(`节点 ${node.id} 执⾏完成`);
+});
+// 执⾏⼯作流
+(async () =&gt; {
+await engine.execute();
+console.log(流程执⾏完成。
+——————————————————————————————————————————————————————
+第2条相似段落：
+Node2 执⾏完成后，同时触发 Node3、Node4、Node5 的执⾏。
+Node3 执⾏完成后，触发 Node6 的执⾏。
+Node4、Node5、Node6 都执⾏完成后，触发 Node7 的执⾏。
+以此类推。
+我们的⽬标是设计⼀个⼯作流引擎，能够按照上述依赖关系，正确地调度和执⾏各个节点，并且
+在可能的情况下⽀持节点的并⾏执⾏。
+设计思路
+为了解决上述需求，我们需要解决以下⼏个关键问题：
+1. 节点的依赖管理：如何表⽰节点之间的依赖关系，确定⼀个节点何时可以开始执⾏？
+2. 并发执⾏：如何在满⾜依赖关系的前提下，尽可能地并⾏执⾏节点，提升执⾏效率？
+3. 执⾏控制：如何监控节点的执⾏状态，确保所有节点都被正确地执⾏？
+针对以上问题，我们的设计思路如下：
+数据结构设计：
+使⽤ nodeMap 存储节点的映射关系，⽅便快速根据节点 ID 获取节点信息。
+使⽤ predecessors 存储每个节点的前驱节点集合，便于判断⼀个节点的所有依赖是否
+已经满⾜。
+使⽤ executingNodes 和 completedNodes 分别记录正在执⾏和已经完成的节点，防⽌
+重复执⾏。
+——————————————————————————————————————————————————————
+第3条相似段落：
+ 在鸿蒙上200⾏代码实现基于⼯作流的启动编排设计
+在现代软件系统中，⼯作流的设计与实现是⼀个常⻅且重要的需求。如何⽤简洁、⾼效的代码来
+实现⼀个⽀持并发执⾏、依赖管理的⼯作流引擎？
+本⽂将带领⼤家在鸿蒙上⼀步⼀步实现⼀个基于⼯作流的启动编排引擎，整个实现不到200⾏代
+码。
+背景与需求
+假设我们有⼀个启动流程，需要按照⼀定的顺序和依赖关系来执⾏多个节点。其中部分节点可以
+并⾏执⾏，部分节点需要等待其他节点完成后才能开始。
+——————————————————————————————————————————————————————</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>"0.5748 | 0.5290 | 0.5278"</t>
+          <t>第1条相似段落相似度: 0.5748
+第2条相似段落相似度: 0.5290
+第3条相似段落相似度: 0.5278</t>
         </is>
       </c>
     </row>
